--- a/MODELOGICO.xlsx
+++ b/MODELOGICO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="299">
   <si>
     <t>Atributo</t>
   </si>
@@ -861,18 +861,6 @@
   </si>
   <si>
     <t>El supevisor del la sucursal recibe una alerta si pasa mas de 24 hr</t>
-  </si>
-  <si>
-    <t>SUC-PAQ</t>
-  </si>
-  <si>
-    <t>NoGuia-Paquete</t>
-  </si>
-  <si>
-    <t>N de guia del paquete</t>
-  </si>
-  <si>
-    <t>Codigo de la sucursal</t>
   </si>
   <si>
     <t>Pagina-Web</t>
@@ -1137,15 +1125,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1145,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,16 +1474,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1565,7 +1553,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1619,7 +1607,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1639,7 +1627,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -1658,16 +1646,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1736,16 +1724,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1831,7 +1819,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -1850,16 +1838,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1929,7 +1917,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2019,7 +2007,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -2039,7 +2027,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -2058,16 +2046,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2173,7 +2161,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2193,7 +2181,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -2212,16 +2200,16 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -2291,7 +2279,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2327,7 +2315,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2345,7 +2333,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2363,7 +2351,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2397,7 +2385,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -2417,7 +2405,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -2436,16 +2424,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -2515,7 +2503,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2551,7 +2539,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2569,7 +2557,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2587,7 +2575,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2621,7 +2609,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -2641,7 +2629,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -2658,16 +2646,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2737,7 +2725,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2791,7 +2779,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2809,7 +2797,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2861,7 +2849,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2897,7 +2885,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2951,7 +2939,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2969,7 +2957,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2987,7 +2975,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3005,7 +2993,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3023,7 +3011,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
@@ -3043,7 +3031,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
@@ -3060,16 +3048,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="15"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -3190,19 +3178,19 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16" t="s">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3210,17 +3198,17 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16" t="s">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3228,16 +3216,16 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -3360,38 +3348,38 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="21" t="s">
+      <c r="B101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="22"/>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -3514,17 +3502,17 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16" t="s">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -3532,17 +3520,17 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16" t="s">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -3550,17 +3538,17 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16" t="s">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -3568,17 +3556,17 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16" t="s">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -3586,52 +3574,52 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16" t="s">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H113" s="18" t="s">
+      <c r="H113" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" s="18" t="s">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="15"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="22"/>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -3754,17 +3742,17 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16" t="s">
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -3772,15 +3760,15 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16" t="s">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13" t="s">
         <v>185</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -3788,17 +3776,17 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -3806,16 +3794,16 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="15"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -3902,16 +3890,16 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="15"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="22"/>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
@@ -4034,16 +4022,16 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="15"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="22"/>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
@@ -4166,16 +4154,16 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="15"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
@@ -4300,7 +4288,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="20" t="s">
+      <c r="G150" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -4308,7 +4296,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B151" s="2"/>
@@ -4328,7 +4316,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B152" s="2"/>
@@ -4346,16 +4334,16 @@
       </c>
     </row>
     <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="15"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -4538,21 +4526,21 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16" t="s">
+      <c r="B163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H163" s="2" t="s">
@@ -4560,19 +4548,19 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16" t="s">
+      <c r="B164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H164" s="2" t="s">
@@ -4580,16 +4568,16 @@
       </c>
     </row>
     <row r="165" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="15"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="22"/>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
@@ -4694,16 +4682,16 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="15"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
@@ -4834,16 +4822,16 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="15"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
@@ -4972,16 +4960,16 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="15"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="22"/>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -5098,7 +5086,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -5110,11 +5098,11 @@
       <c r="D192" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E192" s="22" t="s">
+      <c r="E192" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="22" t="s">
+      <c r="G192" s="19" t="s">
         <v>37</v>
       </c>
       <c r="H192" s="2" t="s">
@@ -5122,7 +5110,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -5134,11 +5122,11 @@
       <c r="D193" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E193" s="22" t="s">
+      <c r="E193" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="2"/>
-      <c r="G193" s="20" t="s">
+      <c r="G193" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H193" s="2" t="s">
@@ -5146,16 +5134,16 @@
       </c>
     </row>
     <row r="194" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="15"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="22"/>
     </row>
     <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
@@ -5316,7 +5304,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B203" s="2"/>
@@ -5328,7 +5316,7 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="G203" s="17" t="s">
+      <c r="G203" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H203" s="2" t="s">
@@ -5336,7 +5324,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B204" s="2"/>
@@ -5348,7 +5336,7 @@
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
-      <c r="G204" s="17" t="s">
+      <c r="G204" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H204" s="2" t="s">
@@ -5356,19 +5344,19 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="16" t="s">
+      <c r="A205" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="17" t="s">
+      <c r="D205" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
-      <c r="G205" s="17" t="s">
+      <c r="G205" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H205" s="2" t="s">
@@ -5376,16 +5364,16 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="15"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="22"/>
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -5490,16 +5478,16 @@
       </c>
     </row>
     <row r="212" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="15"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
@@ -5597,7 +5585,7 @@
       <c r="C217" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D217" s="19" t="s">
+      <c r="D217" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -5612,38 +5600,38 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="16" t="s">
+      <c r="A218" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H218" s="20" t="s">
+      <c r="B218" s="16"/>
+      <c r="C218" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H218" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B219" s="14"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="15"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="22"/>
     </row>
     <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
@@ -5712,16 +5700,16 @@
       </c>
     </row>
     <row r="223" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
-      <c r="H223" s="15"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="22"/>
     </row>
     <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
@@ -5790,16 +5778,16 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="15"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="22"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
@@ -5893,93 +5881,22 @@
         <v>277</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A232" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B232" s="14"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="15"/>
-    </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
+    <mergeCell ref="A219:H219"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A171:H171"/>
+    <mergeCell ref="A178:H178"/>
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A194:H194"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A206:H206"/>
+    <mergeCell ref="A212:H212"/>
     <mergeCell ref="A223:H223"/>
     <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A232:H232"/>
     <mergeCell ref="A144:H144"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A10:H10"/>
@@ -5993,18 +5910,6 @@
     <mergeCell ref="A125:H125"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A206:H206"/>
-    <mergeCell ref="A212:H212"/>
-    <mergeCell ref="A219:H219"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A171:H171"/>
-    <mergeCell ref="A178:H178"/>
-    <mergeCell ref="A185:H185"/>
-    <mergeCell ref="A194:H194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
